--- a/tests/data.xlsx
+++ b/tests/data.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjfm/WebstormProjects/framework-for-web/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitss\Documents\Framework-webdriver-video\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53B1E76-A68D-1240-A449-AF673663E253}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{76D4CBAA-3870-1743-827E-788F2EE694C0}"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>password</t>
   </si>
@@ -42,18 +41,32 @@
     <t>user</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>fuentesmorav</t>
+  </si>
+  <si>
+    <t>ALICOCORP</t>
+  </si>
+  <si>
+    <t>Mayo2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,8 +94,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,33 +411,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2E1990-A8D3-0B4C-876E-5B8F8A2E6424}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/data.xlsx
+++ b/tests/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitss\Documents\Framework-webdriver-video\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjfm/WebstormProjects/Framework-webdriver-video/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414A40CB-D26B-F34A-86DA-AF45E1711CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>password</t>
   </si>
@@ -41,22 +33,13 @@
     <t>user</t>
   </si>
   <si>
-    <t>domain</t>
-  </si>
-  <si>
-    <t>fuentesmorav</t>
-  </si>
-  <si>
-    <t>ALICOCORP</t>
-  </si>
-  <si>
-    <t>Mayo2021</t>
+    <t>username</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -411,38 +394,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
     </row>
   </sheetData>
